--- a/groupProjects/big.xlsx
+++ b/groupProjects/big.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\excel_automation\groupProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A43D8CB-D3BF-461E-B24A-A031D98CF661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30484BB1-CAFA-48F1-89FB-8A561B504654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -878,7 +878,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -904,18 +904,8 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -934,11 +924,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA9A9A9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -949,17 +934,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA9A9A9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -999,19 +979,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFA9A9A9"/>
       </left>
       <right style="thin">
@@ -1040,26 +1007,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1067,25 +1019,19 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1402,21 +1348,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" topLeftCell="B117" workbookViewId="0">
+      <selection activeCell="B144" sqref="A144:XFD144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1436,7 +1382,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1456,7 +1402,7 @@
         <v>38.520000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1476,7 +1422,7 @@
         <v>38.520000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1496,7 +1442,7 @@
         <v>6869.4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1516,7 +1462,7 @@
         <v>6741</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1536,7 +1482,7 @@
         <v>5671</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1556,7 +1502,7 @@
         <v>5098.55</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1576,7 +1522,7 @@
         <v>5949.2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1596,7 +1542,7 @@
         <v>6741</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1616,7 +1562,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1636,7 +1582,7 @@
         <v>995.1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1656,7 +1602,7 @@
         <v>706.2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1676,7 +1622,7 @@
         <v>4140.8999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1696,7 +1642,7 @@
         <v>511.46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1716,7 +1662,7 @@
         <v>187.25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1736,7 +1682,7 @@
         <v>2621.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1756,7 +1702,7 @@
         <v>567.1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1776,7 +1722,7 @@
         <v>42.8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1796,7 +1742,7 @@
         <v>51.36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1816,7 +1762,7 @@
         <v>4066</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1836,7 +1782,7 @@
         <v>331.7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1856,7 +1802,7 @@
         <v>199.02</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1876,7 +1822,7 @@
         <v>1603.93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1896,7 +1842,7 @@
         <v>44.94</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1916,7 +1862,7 @@
         <v>136.96</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1936,7 +1882,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1956,7 +1902,7 @@
         <v>350.96</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1976,7 +1922,7 @@
         <v>256.8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -1996,7 +1942,7 @@
         <v>3787.8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2016,7 +1962,7 @@
         <v>218.28</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2036,7 +1982,7 @@
         <v>1663.32</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2056,7 +2002,7 @@
         <v>5352.25</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2076,7 +2022,7 @@
         <v>1190.9100000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2096,7 +2042,7 @@
         <v>2013.74</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -2116,7 +2062,7 @@
         <v>363.8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -2136,7 +2082,7 @@
         <v>668.92</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -2156,7 +2102,7 @@
         <v>316.86</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -2176,7 +2122,7 @@
         <v>834.6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -2196,7 +2142,7 @@
         <v>256.8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -2216,7 +2162,7 @@
         <v>406.6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2236,7 +2182,7 @@
         <v>597.05999999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -2256,7 +2202,7 @@
         <v>1990.2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -2276,7 +2222,7 @@
         <v>920.2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -2296,7 +2242,7 @@
         <v>1051.81</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -2316,7 +2262,7 @@
         <v>1765.5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -2336,7 +2282,7 @@
         <v>843.16</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -2356,7 +2302,7 @@
         <v>1990.2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -2376,7 +2322,7 @@
         <v>449.4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -2396,7 +2342,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -2416,7 +2362,7 @@
         <v>62.06</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -2436,7 +2382,7 @@
         <v>256.8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -2456,7 +2402,7 @@
         <v>2125.02</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -2476,927 +2422,927 @@
         <v>182.97</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="5">
         <v>43901</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E54" s="8" t="s">
+      <c r="C54" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>199</v>
       </c>
       <c r="F54" s="4">
         <v>1254.9000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="5">
         <v>43885</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E55" s="8" t="s">
+      <c r="C55" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>200</v>
       </c>
       <c r="F55" s="4">
         <v>670.89</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="5">
         <v>43888</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E56" s="8" t="s">
+      <c r="C56" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>201</v>
       </c>
       <c r="F56" s="4">
         <v>1070</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="5">
         <v>43889</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E57" s="8" t="s">
+      <c r="C57" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>201</v>
       </c>
       <c r="F57" s="4">
         <v>314.58</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="5">
         <v>43924</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E58" s="8" t="s">
+      <c r="C58" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>202</v>
       </c>
       <c r="F58" s="4">
         <v>1990.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="5">
         <v>43990</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E59" s="8" t="s">
+      <c r="C59" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>203</v>
       </c>
       <c r="F59" s="4">
         <v>154.08000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="5">
         <v>43990</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E60" s="8" t="s">
+      <c r="C60" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>203</v>
       </c>
       <c r="F60" s="4">
         <v>706.2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="5">
         <v>43980</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E61" s="8" t="s">
+      <c r="C61" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>204</v>
       </c>
       <c r="F61" s="4">
         <v>749</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="5">
         <v>43972</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E62" s="8" t="s">
+      <c r="C62" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>205</v>
       </c>
       <c r="F62" s="4">
         <v>7154.02</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="5">
         <v>43985</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E63" s="8" t="s">
+      <c r="C63" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>206</v>
       </c>
       <c r="F63" s="4">
         <v>2525.1999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="5">
         <v>43987</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E64" s="8" t="s">
+      <c r="C64" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>207</v>
       </c>
       <c r="F64" s="4">
         <v>1531.17</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="5">
         <v>43992</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E65" s="8" t="s">
+      <c r="C65" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>208</v>
       </c>
       <c r="F65" s="4">
         <v>11770</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="5">
         <v>43992</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E66" s="8" t="s">
+      <c r="C66" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>209</v>
       </c>
       <c r="F66" s="4">
         <v>1797.6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="5">
         <v>43997</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E67" s="8" t="s">
+      <c r="C67" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>210</v>
       </c>
       <c r="F67" s="4">
         <v>757.56</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="5">
         <v>44008</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E68" s="8" t="s">
+      <c r="C68" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>211</v>
       </c>
       <c r="F68" s="4">
         <v>14038.4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="5">
         <v>43867</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E69" s="8" t="s">
+      <c r="C69" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>212</v>
       </c>
       <c r="F69" s="4">
         <v>642</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="5">
         <v>43888</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E70" s="8" t="s">
+      <c r="C70" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>213</v>
       </c>
       <c r="F70" s="4">
         <v>2140</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="5">
         <v>43948</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E71" s="8" t="s">
+      <c r="C71" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>214</v>
       </c>
       <c r="F71" s="4">
         <v>321</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="5">
         <v>43971</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E72" s="8" t="s">
+      <c r="C72" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>215</v>
       </c>
       <c r="F72" s="4">
         <v>449.4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="5">
         <v>43928</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E73" s="8" t="s">
+      <c r="C73" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>216</v>
       </c>
       <c r="F73" s="4">
         <v>139.1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="5">
         <v>43832</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E74" s="8" t="s">
+      <c r="C74" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>217</v>
       </c>
       <c r="F74" s="4">
         <v>535</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="5">
         <v>43837</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E75" s="8" t="s">
+      <c r="C75" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>218</v>
       </c>
       <c r="F75" s="4">
         <v>1284</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="5">
         <v>43948</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E76" s="8" t="s">
+      <c r="C76" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>219</v>
       </c>
       <c r="F76" s="4">
         <v>401.25</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="5">
         <v>44005</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E77" s="8" t="s">
+      <c r="C77" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>220</v>
       </c>
       <c r="F77" s="4">
         <v>35684.5</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="5">
         <v>43991</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E78" s="8" t="s">
+      <c r="C78" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>221</v>
       </c>
       <c r="F78" s="4">
         <v>2833.36</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="5">
         <v>43992</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E79" s="8" t="s">
+      <c r="C79" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>222</v>
       </c>
       <c r="F79" s="4">
         <v>2247</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="5">
         <v>43984</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E80" s="8" t="s">
+      <c r="C80" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>223</v>
       </c>
       <c r="F80" s="4">
         <v>3124.4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="5">
         <v>43992</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E81" s="8" t="s">
+      <c r="C81" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>224</v>
       </c>
       <c r="F81" s="4">
         <v>1185.1300000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="5">
         <v>43974</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E82" s="8" t="s">
+      <c r="C82" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>225</v>
       </c>
       <c r="F82" s="4">
         <v>3402.6</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="5">
         <v>43978</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E83" s="8" t="s">
+      <c r="C83" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>226</v>
       </c>
       <c r="F83" s="4">
         <v>3856.28</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="5">
         <v>43998</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E84" s="8" t="s">
+      <c r="C84" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>227</v>
       </c>
       <c r="F84" s="4">
         <v>2499.52</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="5">
         <v>43908</v>
       </c>
-      <c r="C85" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E85" s="8" t="s">
+      <c r="C85" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>228</v>
       </c>
       <c r="F85" s="4">
         <v>759.7</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="5">
         <v>43907</v>
       </c>
-      <c r="C86" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E86" s="8" t="s">
+      <c r="C86" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>229</v>
       </c>
       <c r="F86" s="4">
         <v>963</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="5">
         <v>43972</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E87" s="8" t="s">
+      <c r="C87" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>230</v>
       </c>
       <c r="F87" s="4">
         <v>4317.45</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="5">
         <v>43971</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E88" s="8" t="s">
+      <c r="C88" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>230</v>
       </c>
       <c r="F88" s="4">
         <v>4413.75</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="5">
         <v>43974</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E89" s="8" t="s">
+      <c r="C89" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>231</v>
       </c>
       <c r="F89" s="4">
         <v>2157.12</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="5">
         <v>43970</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E90" s="8" t="s">
+      <c r="C90" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>232</v>
       </c>
       <c r="F90" s="4">
         <v>2022.3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="5">
         <v>43948</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E91" s="8" t="s">
+      <c r="C91" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>233</v>
       </c>
       <c r="F91" s="4">
         <v>401.25</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="5">
         <v>43970</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E92" s="8" t="s">
+      <c r="C92" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>234</v>
       </c>
       <c r="F92" s="4">
         <v>2247</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="5">
         <v>43983</v>
       </c>
-      <c r="C93" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E93" s="8" t="s">
+      <c r="C93" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>235</v>
       </c>
       <c r="F93" s="4">
         <v>2760.6</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="5">
         <v>43983</v>
       </c>
-      <c r="C94" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E94" s="8" t="s">
+      <c r="C94" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>236</v>
       </c>
       <c r="F94" s="4">
         <v>4494</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="5">
         <v>43986</v>
       </c>
-      <c r="C95" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E95" s="8" t="s">
+      <c r="C95" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>237</v>
       </c>
       <c r="F95" s="4">
         <v>561.75</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="5">
         <v>43913</v>
       </c>
-      <c r="C96" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E96" s="8" t="s">
+      <c r="C96" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>238</v>
       </c>
       <c r="F96" s="4">
         <v>8988</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="5">
         <v>43978</v>
       </c>
-      <c r="C97" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E97" s="8" t="s">
+      <c r="C97" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E97" s="6" t="s">
         <v>239</v>
       </c>
       <c r="F97" s="4">
         <v>8586.75</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="5">
         <v>43978</v>
       </c>
-      <c r="C98" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E98" s="8" t="s">
+      <c r="C98" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>240</v>
       </c>
       <c r="F98" s="4">
         <v>644.14</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="5">
         <v>43981</v>
       </c>
-      <c r="C99" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E99" s="8" t="s">
+      <c r="C99" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>241</v>
       </c>
       <c r="F99" s="4">
         <v>15.52</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -3416,7 +3362,7 @@
         <v>13035.81</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -3436,7 +3382,7 @@
         <v>10914</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -3456,7 +3402,7 @@
         <v>102.72</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -3476,7 +3422,7 @@
         <v>770.4</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -3496,7 +3442,7 @@
         <v>2482.4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
@@ -3516,7 +3462,7 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -3536,7 +3482,7 @@
         <v>8346</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -3556,7 +3502,7 @@
         <v>6527</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -3576,7 +3522,7 @@
         <v>9844</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -3596,7 +3542,7 @@
         <v>5564</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -3616,7 +3562,7 @@
         <v>10432.5</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
@@ -3636,167 +3582,167 @@
         <v>6741</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112" s="5">
         <v>43920</v>
       </c>
-      <c r="C112" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E112" s="8" t="s">
+      <c r="C112" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E112" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F112" s="9">
+      <c r="F112" s="7">
         <v>8923.7999999999993</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="5">
         <v>43920</v>
       </c>
-      <c r="C113" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E113" s="8" t="s">
+      <c r="C113" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E113" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="F113" s="9">
+      <c r="F113" s="7">
         <v>29746</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="5">
         <v>43923</v>
       </c>
-      <c r="C114" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E114" s="8" t="s">
+      <c r="C114" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="F114" s="9">
+      <c r="F114" s="7">
         <v>4461.8999999999996</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="5">
         <v>43983</v>
       </c>
-      <c r="C115" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E115" s="8" t="s">
+      <c r="C115" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E115" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="F115" s="9">
+      <c r="F115" s="7">
         <v>1043.25</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="5">
         <v>43988</v>
       </c>
-      <c r="C116" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E116" s="8" t="s">
+      <c r="C116" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E116" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="F116" s="9">
+      <c r="F116" s="7">
         <v>13776.25</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="5">
         <v>43983</v>
       </c>
-      <c r="C117" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E117" s="8" t="s">
+      <c r="C117" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E117" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="F117" s="9">
+      <c r="F117" s="7">
         <v>674.1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="5">
         <v>43992</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E118" s="8" t="s">
+      <c r="C118" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E118" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="F118" s="9">
+      <c r="F118" s="7">
         <v>3819.9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="7">
+      <c r="B119" s="5">
         <v>43992</v>
       </c>
-      <c r="C119" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E119" s="8" t="s">
+      <c r="C119" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E119" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="F119" s="9">
+      <c r="F119" s="7">
         <v>8506.5</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -3816,7 +3762,7 @@
         <v>67.41</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
@@ -3836,7 +3782,7 @@
         <v>4494</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -3856,7 +3802,7 @@
         <v>6516.3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -3876,7 +3822,7 @@
         <v>529.65</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -3896,7 +3842,7 @@
         <v>1412.4</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -3916,7 +3862,7 @@
         <v>401.25</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -3936,7 +3882,7 @@
         <v>6955</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -3956,7 +3902,7 @@
         <v>7864.5</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -3976,7 +3922,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -3996,7 +3942,7 @@
         <v>1364.25</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -4016,7 +3962,7 @@
         <v>426.93</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -4036,7 +3982,7 @@
         <v>8025</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -4056,7 +4002,7 @@
         <v>4547.5</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -4076,7 +4022,7 @@
         <v>1685.25</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -4096,7 +4042,7 @@
         <v>4547.5</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -4116,7 +4062,7 @@
         <v>1123.5</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -4136,7 +4082,7 @@
         <v>1562.2</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -4156,7 +4102,7 @@
         <v>1123.5</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -4176,7 +4122,7 @@
         <v>6152.5</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -4196,7 +4142,7 @@
         <v>1123.5</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
@@ -4216,7 +4162,7 @@
         <v>10218.5</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -4236,7 +4182,7 @@
         <v>18190</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -4256,7 +4202,7 @@
         <v>4494</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -4274,16 +4220,6 @@
       </c>
       <c r="F143" s="4">
         <v>872.91</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="5">
-        <v>479552.18</v>
       </c>
     </row>
   </sheetData>
